--- a/SPI-Protocol.xlsx
+++ b/SPI-Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jogas\Google Drive\Bachelor\_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DCA37E-4578-4704-BADB-B504341B73A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9C9A93-1983-4E5A-9185-C391FBD85E48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Exception code" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="245">
   <si>
     <t>Description</t>
   </si>
@@ -893,12 +892,21 @@
   <si>
     <t>function Code</t>
   </si>
+  <si>
+    <t>Saved in EEPROM</t>
+  </si>
+  <si>
+    <t>0x20</t>
+  </si>
+  <si>
+    <t>0x21</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -984,6 +992,14 @@
     <font>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1272,7 +1288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1661,6 +1677,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1689,16 +1720,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>583747</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>462642</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>134711</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>40820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4377995</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>16070</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3928959</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2463</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1721,8 +1752,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11864068" y="9103178"/>
-          <a:ext cx="6257143" cy="2057143"/>
+          <a:off x="14980104" y="10804070"/>
+          <a:ext cx="6257141" cy="2057143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2111,10 +2142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N243"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2128,13 +2159,14 @@
     <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" style="105" customWidth="1"/>
     <col min="9" max="9" width="29" style="105" customWidth="1"/>
-    <col min="10" max="10" width="36.85546875" customWidth="1"/>
-    <col min="11" max="11" width="139" customWidth="1"/>
-    <col min="12" max="13" width="19.140625" customWidth="1"/>
-    <col min="14" max="15" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23" style="105" customWidth="1"/>
+    <col min="11" max="11" width="36.85546875" customWidth="1"/>
+    <col min="12" max="12" width="139" customWidth="1"/>
+    <col min="13" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="16" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2143,9 +2175,9 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="16"/>
@@ -2154,10 +2186,11 @@
       <c r="G2" s="9"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B3" s="45" t="s">
         <v>10</v>
       </c>
@@ -2168,10 +2201,11 @@
       <c r="G3" s="9"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B4" s="46"/>
       <c r="C4" s="9" t="s">
         <v>137</v>
@@ -2184,10 +2218,11 @@
       <c r="G4" s="9"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B5" s="47"/>
       <c r="C5" s="9" t="s">
         <v>138</v>
@@ -2200,10 +2235,11 @@
       <c r="G5" s="9"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B6" s="48"/>
       <c r="C6" s="9" t="s">
         <v>140</v>
@@ -2216,10 +2252,11 @@
       <c r="G6" s="9"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B7" s="63"/>
       <c r="C7" s="9" t="s">
         <v>139</v>
@@ -2230,10 +2267,11 @@
       <c r="G7" s="9"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B8" s="77"/>
       <c r="C8" s="9"/>
       <c r="D8" s="16"/>
@@ -2242,10 +2280,11 @@
       <c r="G8" s="9"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B9" s="77" t="s">
         <v>144</v>
       </c>
@@ -2256,10 +2295,11 @@
       <c r="G9" s="9"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="19"/>
       <c r="C10" s="20" t="s">
         <v>6</v>
@@ -2282,10 +2322,13 @@
       <c r="I10" s="106" t="s">
         <v>223</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="106" t="s">
+        <v>242</v>
+      </c>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>0</v>
       </c>
@@ -2311,41 +2354,43 @@
       <c r="I11" s="111">
         <v>1</v>
       </c>
-      <c r="J11" s="112" t="s">
+      <c r="J11" s="111"/>
+      <c r="K11" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="K11" s="112" t="s">
+      <c r="L11" s="112" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="126"/>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="140" t="s">
         <v>177</v>
       </c>
-      <c r="E12" s="109" t="s">
+      <c r="E12" s="141" t="s">
         <v>181</v>
       </c>
-      <c r="F12" s="108" t="s">
+      <c r="F12" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="110"/>
-      <c r="H12" s="111" t="s">
+      <c r="G12" s="142"/>
+      <c r="H12" s="143" t="s">
         <v>174</v>
       </c>
-      <c r="I12" s="111" t="s">
+      <c r="I12" s="143" t="s">
         <v>175</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="143"/>
+      <c r="K12" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -2371,10 +2416,11 @@
       <c r="I13" s="104">
         <v>1</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="104"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -2400,10 +2446,11 @@
       <c r="I14" s="104">
         <v>2</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="104"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -2427,10 +2474,11 @@
       <c r="I15" s="104">
         <v>2</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="104"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="51" x14ac:dyDescent="0.3">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="51" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>4</v>
       </c>
@@ -2456,10 +2504,11 @@
       <c r="I16" s="104">
         <v>4</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="104"/>
       <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>5</v>
       </c>
@@ -2487,10 +2536,13 @@
       <c r="I17" s="104">
         <v>2</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="104" t="s">
+        <v>143</v>
+      </c>
       <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>6</v>
       </c>
@@ -2516,10 +2568,13 @@
       <c r="I18" s="104">
         <v>2</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="104" t="s">
+        <v>143</v>
+      </c>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>7</v>
       </c>
@@ -2545,10 +2600,13 @@
       <c r="I19" s="104">
         <v>4</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="104" t="s">
+        <v>143</v>
+      </c>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>8</v>
       </c>
@@ -2576,12 +2634,13 @@
       <c r="I20" s="104">
         <v>1</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="104"/>
+      <c r="K20" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>9</v>
       </c>
@@ -2607,10 +2666,13 @@
       <c r="I21" s="104">
         <v>2</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="104" t="s">
+        <v>143</v>
+      </c>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>10</v>
       </c>
@@ -2636,10 +2698,13 @@
       <c r="I22" s="104">
         <v>2</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="104" t="s">
+        <v>143</v>
+      </c>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>11</v>
       </c>
@@ -2665,10 +2730,13 @@
       <c r="I23" s="104">
         <v>2</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="104" t="s">
+        <v>143</v>
+      </c>
       <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>12</v>
       </c>
@@ -2696,10 +2764,11 @@
       <c r="I24" s="104">
         <v>1</v>
       </c>
-      <c r="J24" s="1"/>
+      <c r="J24" s="104"/>
       <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>13</v>
       </c>
@@ -2725,10 +2794,11 @@
       <c r="I25" s="104">
         <v>2</v>
       </c>
-      <c r="J25" s="1"/>
+      <c r="J25" s="104"/>
       <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>14</v>
       </c>
@@ -2752,10 +2822,11 @@
       <c r="I26" s="104">
         <v>2</v>
       </c>
-      <c r="J26" s="1"/>
+      <c r="J26" s="104"/>
       <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>15</v>
       </c>
@@ -2779,13 +2850,12 @@
       <c r="I27" s="104">
         <v>2</v>
       </c>
-      <c r="J27" s="1"/>
+      <c r="J27" s="104"/>
       <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>16</v>
-      </c>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
       <c r="B28" s="126"/>
       <c r="C28" s="98" t="s">
         <v>102</v>
@@ -2806,527 +2876,569 @@
       <c r="I28" s="104">
         <v>1</v>
       </c>
-      <c r="J28" s="1"/>
+      <c r="J28" s="104"/>
       <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>17</v>
-      </c>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
       <c r="B29" s="126"/>
       <c r="C29" s="94" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D29" s="95" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E29" s="96" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F29" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" s="97"/>
+        <v>129</v>
+      </c>
+      <c r="G29" s="97" t="s">
+        <v>143</v>
+      </c>
       <c r="H29" s="104" t="s">
         <v>162</v>
       </c>
       <c r="I29" s="104">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="J29" s="104" t="s">
+        <v>143</v>
+      </c>
       <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B30" s="126"/>
-      <c r="C30" s="87" t="s">
+      <c r="C30" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="82"/>
+      <c r="D30" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="97" t="s">
+        <v>143</v>
+      </c>
       <c r="H30" s="104" t="s">
         <v>163</v>
       </c>
       <c r="I30" s="104">
         <v>2</v>
       </c>
-      <c r="J30" s="1"/>
+      <c r="J30" s="104" t="s">
+        <v>143</v>
+      </c>
       <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="18"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>17</v>
+      </c>
+      <c r="B31" s="126"/>
+      <c r="C31" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="96" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="97"/>
+      <c r="H31" s="104" t="s">
+        <v>243</v>
+      </c>
+      <c r="I31" s="104">
+        <v>1</v>
+      </c>
+      <c r="J31" s="104"/>
       <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="19"/>
-      <c r="C32" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>18</v>
+      </c>
+      <c r="B32" s="126"/>
+      <c r="C32" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="82"/>
+      <c r="H32" s="104" t="s">
+        <v>244</v>
+      </c>
+      <c r="I32" s="104">
+        <v>2</v>
+      </c>
+      <c r="J32" s="104"/>
       <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="75"/>
-      <c r="C33" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="G33" s="23"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="18"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="9"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="1"/>
+      <c r="J33" s="14"/>
       <c r="K33" s="1"/>
-      <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="49"/>
-      <c r="C34" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>143</v>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="19"/>
+      <c r="C34" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>142</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="14"/>
       <c r="K34" s="1"/>
-      <c r="N34" s="5"/>
-    </row>
-    <row r="35" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="134" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="26" t="s">
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="75"/>
+      <c r="C35" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="G35" s="59"/>
+      <c r="G35" s="23"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="14"/>
       <c r="K35" s="1"/>
-      <c r="N35" s="5"/>
-    </row>
-    <row r="36" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="135"/>
-      <c r="C36" s="51" t="s">
-        <v>103</v>
+      <c r="L35" s="1"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B36" s="49"/>
+      <c r="C36" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="G36" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="14"/>
       <c r="K36" s="1"/>
-      <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="2:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="32" t="s">
+      <c r="L36" s="1"/>
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="134" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G37" s="11"/>
+      <c r="G37" s="59"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="14"/>
       <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="129" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="64" t="s">
+      <c r="L37" s="1"/>
+      <c r="O37" s="5"/>
+    </row>
+    <row r="38" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="135"/>
+      <c r="C38" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" s="65" t="s">
+      <c r="D38" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G38" s="59"/>
+      <c r="G38" s="13"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="14"/>
       <c r="K38" s="1"/>
-      <c r="N38" s="5"/>
-    </row>
-    <row r="39" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="130"/>
-      <c r="C39" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" s="24" t="s">
+      <c r="L38" s="1"/>
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="2:15" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="G39" s="60"/>
+      <c r="G39" s="11"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="1"/>
+      <c r="J39" s="14"/>
       <c r="K39" s="1"/>
-      <c r="N39" s="5"/>
-    </row>
-    <row r="40" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="130"/>
-      <c r="C40" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="24" t="s">
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="129" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="G40" s="60"/>
+      <c r="G40" s="59"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="14"/>
       <c r="K40" s="1"/>
-      <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="131"/>
-      <c r="C41" s="67" t="s">
+      <c r="L40" s="1"/>
+      <c r="O40" s="5"/>
+    </row>
+    <row r="41" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="130"/>
+      <c r="C41" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="60"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="O41" s="5"/>
+    </row>
+    <row r="42" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="130"/>
+      <c r="C42" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="60"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="O42" s="5"/>
+    </row>
+    <row r="43" spans="2:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="131"/>
+      <c r="C43" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D43" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="69" t="s">
+      <c r="E43" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="F41" s="70" t="s">
+      <c r="F43" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="127" t="s">
+      <c r="G43" s="12"/>
+      <c r="H43" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="128"/>
-      <c r="N41" s="5"/>
-    </row>
-    <row r="42" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="129" t="s">
+      <c r="I43" s="128"/>
+      <c r="J43" s="128"/>
+      <c r="K43" s="128"/>
+      <c r="L43" s="128"/>
+      <c r="O43" s="5"/>
+    </row>
+    <row r="44" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B44" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C44" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D44" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E44" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F44" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="G42" s="61" t="s">
+      <c r="G44" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="130"/>
-      <c r="C43" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="G43" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="130"/>
-      <c r="C44" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="F44" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="G44" s="62"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="1"/>
+      <c r="J44" s="9"/>
       <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B45" s="130"/>
-      <c r="C45" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="F45" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="G45" s="62"/>
+      <c r="C45" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" s="62" t="s">
+        <v>143</v>
+      </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="1"/>
+      <c r="J45" s="9"/>
       <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B46" s="130"/>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" s="62"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B47" s="130"/>
+      <c r="C47" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" s="62"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B48" s="130"/>
+      <c r="C48" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="36" t="s">
+      <c r="E48" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="G46" s="62"/>
-      <c r="H46" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B47" s="130"/>
-      <c r="C47" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="G47" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="2:14" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B48" s="131"/>
-      <c r="C48" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="G48" s="12"/>
+      <c r="F48" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="62"/>
       <c r="H48" s="9" t="s">
         <v>117</v>
       </c>
       <c r="I48" s="9"/>
-      <c r="J48" s="1"/>
+      <c r="J48" s="9"/>
       <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="129" t="s">
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B49" s="130"/>
+      <c r="C49" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="2:15" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B50" s="131"/>
+      <c r="C50" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="G50" s="12"/>
+      <c r="H50" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C51" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D51" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E51" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="F51" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G49" s="61" t="s">
+      <c r="G51" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H51" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="I49" s="9"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="N49" s="5"/>
-    </row>
-    <row r="50" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B50" s="130"/>
-      <c r="C50" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="G50" s="62"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="N50" s="5"/>
-    </row>
-    <row r="51" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="130"/>
-      <c r="C51" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="G51" s="62"/>
-      <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="1"/>
+      <c r="J51" s="9"/>
       <c r="K51" s="1"/>
-      <c r="N51" s="5"/>
-    </row>
-    <row r="52" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L51" s="1"/>
+      <c r="O51" s="5"/>
+    </row>
+    <row r="52" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B52" s="130"/>
       <c r="C52" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F52" s="35" t="s">
         <v>128</v>
@@ -3334,20 +3446,21 @@
       <c r="G52" s="62"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="1"/>
+      <c r="J52" s="9"/>
       <c r="K52" s="1"/>
-      <c r="N52" s="5"/>
-    </row>
-    <row r="53" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L52" s="1"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="130"/>
       <c r="C53" s="54" t="s">
         <v>103</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F53" s="35" t="s">
         <v>128</v>
@@ -3355,152 +3468,155 @@
       <c r="G53" s="62"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="1"/>
+      <c r="J53" s="9"/>
       <c r="K53" s="1"/>
-      <c r="N53" s="5"/>
-    </row>
-    <row r="54" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L53" s="1"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="54" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B54" s="130"/>
-      <c r="C54" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="F54" s="39" t="s">
-        <v>129</v>
+      <c r="C54" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" s="35" t="s">
+        <v>128</v>
       </c>
       <c r="G54" s="62"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="1"/>
+      <c r="J54" s="9"/>
       <c r="K54" s="1"/>
-      <c r="N54" s="5"/>
-    </row>
-    <row r="55" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L54" s="1"/>
+      <c r="O54" s="5"/>
+    </row>
+    <row r="55" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B55" s="130"/>
-      <c r="C55" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="F55" s="39" t="s">
+      <c r="C55" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="35" t="s">
         <v>128</v>
       </c>
       <c r="G55" s="62"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
-      <c r="J55" s="1"/>
+      <c r="J55" s="9"/>
       <c r="K55" s="1"/>
-      <c r="N55" s="5"/>
-    </row>
-    <row r="56" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L55" s="1"/>
+      <c r="O55" s="5"/>
+    </row>
+    <row r="56" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B56" s="130"/>
-      <c r="C56" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56" s="35" t="s">
-        <v>128</v>
+      <c r="C56" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="G56" s="62"/>
-      <c r="H56" s="9" t="s">
-        <v>133</v>
-      </c>
+      <c r="H56" s="9"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="1"/>
+      <c r="J56" s="9"/>
       <c r="K56" s="1"/>
-      <c r="N56" s="5"/>
-    </row>
-    <row r="57" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L56" s="1"/>
+      <c r="O56" s="5"/>
+    </row>
+    <row r="57" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="130"/>
-      <c r="C57" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="D57" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F57" s="35" t="s">
+      <c r="C57" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" s="39" t="s">
         <v>128</v>
       </c>
       <c r="G57" s="62"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="1"/>
+      <c r="J57" s="9"/>
       <c r="K57" s="1"/>
-      <c r="N57" s="5"/>
-    </row>
-    <row r="58" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L57" s="1"/>
+      <c r="O57" s="5"/>
+    </row>
+    <row r="58" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B58" s="130"/>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F58" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="G58" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="H58" s="9"/>
+      <c r="D58" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="G58" s="62"/>
+      <c r="H58" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="I58" s="9"/>
-      <c r="J58" s="1"/>
+      <c r="J58" s="9"/>
       <c r="K58" s="1"/>
-      <c r="N58" s="5"/>
-    </row>
-    <row r="59" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L58" s="1"/>
+      <c r="O58" s="5"/>
+    </row>
+    <row r="59" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B59" s="130"/>
-      <c r="C59" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="G59" s="62" t="s">
-        <v>143</v>
-      </c>
+      <c r="C59" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="G59" s="62"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="1"/>
+      <c r="J59" s="9"/>
       <c r="K59" s="1"/>
-      <c r="N59" s="5"/>
-    </row>
-    <row r="60" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L59" s="1"/>
+      <c r="O59" s="5"/>
+    </row>
+    <row r="60" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B60" s="130"/>
       <c r="C60" s="53" t="s">
         <v>103</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F60" s="24" t="s">
         <v>129</v>
@@ -3510,227 +3626,240 @@
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="1"/>
+      <c r="J60" s="9"/>
       <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L60" s="1"/>
+      <c r="O60" s="5"/>
+    </row>
+    <row r="61" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B61" s="130"/>
-      <c r="C61" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="D61" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="G61" s="62"/>
+      <c r="C61" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G61" s="62" t="s">
+        <v>143</v>
+      </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="1"/>
+      <c r="J61" s="9"/>
       <c r="K61" s="1"/>
-      <c r="N61" s="5"/>
-    </row>
-    <row r="62" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B62" s="131"/>
-      <c r="C62" s="57" t="s">
+      <c r="L61" s="1"/>
+      <c r="O61" s="5"/>
+    </row>
+    <row r="62" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B62" s="130"/>
+      <c r="C62" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="F62" s="41" t="s">
+      <c r="D62" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="G62" s="12"/>
+      <c r="G62" s="62" t="s">
+        <v>143</v>
+      </c>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-      <c r="J62" s="1"/>
+      <c r="J62" s="9"/>
       <c r="K62" s="1"/>
-      <c r="N62" s="5"/>
-    </row>
-    <row r="63" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B63" s="129" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" s="50" t="s">
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B63" s="130"/>
+      <c r="C63" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="D63" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F63" s="26" t="s">
+      <c r="D63" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="G63" s="61" t="s">
-        <v>143</v>
-      </c>
+      <c r="G63" s="62"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="1"/>
+      <c r="J63" s="9"/>
       <c r="K63" s="1"/>
-      <c r="N63" s="5"/>
-    </row>
-    <row r="64" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="130"/>
-      <c r="C64" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="D64" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="F64" s="39" t="s">
+      <c r="L63" s="1"/>
+      <c r="O63" s="5"/>
+    </row>
+    <row r="64" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B64" s="131"/>
+      <c r="C64" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="G64" s="62"/>
+      <c r="G64" s="12"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="1"/>
+      <c r="J64" s="9"/>
       <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B65" s="130"/>
-      <c r="C65" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="D65" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E65" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="F65" s="39" t="s">
+      <c r="L64" s="1"/>
+      <c r="O64" s="5"/>
+    </row>
+    <row r="65" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B65" s="129" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G65" s="62"/>
+      <c r="G65" s="61" t="s">
+        <v>143</v>
+      </c>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
-      <c r="J65" s="1"/>
+      <c r="J65" s="9"/>
       <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L65" s="1"/>
+      <c r="O65" s="5"/>
+    </row>
+    <row r="66" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="130"/>
-      <c r="C66" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="D66" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66" s="73" t="s">
+      <c r="C66" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="F66" s="72" t="s">
+      <c r="F66" s="39" t="s">
         <v>129</v>
       </c>
       <c r="G66" s="62"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
-      <c r="J66" s="1"/>
+      <c r="J66" s="9"/>
       <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="2:11" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B67" s="130"/>
-      <c r="C67" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E67" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F67" s="35" t="s">
-        <v>129</v>
+      <c r="C67" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F67" s="39" t="s">
+        <v>128</v>
       </c>
       <c r="G67" s="62"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
-      <c r="J67" s="1"/>
+      <c r="J67" s="9"/>
       <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B68" s="130"/>
-      <c r="C68" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D68" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E68" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="F68" s="35" t="s">
-        <v>128</v>
+      <c r="C68" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="D68" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="E68" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="72" t="s">
+        <v>129</v>
       </c>
       <c r="G68" s="62"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
-      <c r="J68" s="1"/>
+      <c r="J68" s="9"/>
       <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="2:15" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B69" s="130"/>
       <c r="C69" s="54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E69" s="36" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F69" s="35" t="s">
         <v>129</v>
       </c>
       <c r="G69" s="62"/>
-      <c r="H69" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I69" s="22"/>
-      <c r="J69" s="1"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
       <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B70" s="130"/>
       <c r="C70" s="54" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F70" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G70" s="62"/>
-      <c r="H70" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I70" s="22"/>
-      <c r="J70" s="1"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
       <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B71" s="130"/>
       <c r="C71" s="54" t="s">
         <v>112</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E71" s="36" t="s">
         <v>121</v>
@@ -3743,143 +3872,154 @@
         <v>117</v>
       </c>
       <c r="I71" s="22"/>
-      <c r="J71" s="1"/>
+      <c r="J71" s="22"/>
       <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B72" s="130"/>
       <c r="C72" s="54" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E72" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F72" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G72" s="62"/>
       <c r="H72" s="22" t="s">
         <v>117</v>
       </c>
       <c r="I72" s="22"/>
-      <c r="J72" s="1"/>
+      <c r="J72" s="22"/>
       <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B73" s="130"/>
       <c r="C73" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="F73" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G73" s="62"/>
+      <c r="H73" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B74" s="130"/>
+      <c r="C74" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F74" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="G74" s="62"/>
+      <c r="H74" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B75" s="130"/>
+      <c r="C75" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D75" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E73" s="36" t="s">
+      <c r="E75" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="35" t="s">
+      <c r="F75" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="G73" s="60"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B74" s="131"/>
-      <c r="C74" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="D74" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E74" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="F74" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="G74" s="13"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="129" t="s">
-        <v>125</v>
-      </c>
-      <c r="C75" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F75" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="G75" s="59"/>
+      <c r="G75" s="60"/>
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
-      <c r="J75" s="1"/>
+      <c r="J75" s="14"/>
       <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B76" s="130"/>
-      <c r="C76" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="D76" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E76" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F76" s="24" t="s">
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B76" s="131"/>
+      <c r="C76" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F76" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="G76" s="60"/>
+      <c r="G76" s="13"/>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
-      <c r="J76" s="1"/>
+      <c r="J76" s="14"/>
       <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B77" s="130"/>
-      <c r="C77" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E77" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="F77" s="24" t="s">
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F77" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G77" s="60"/>
+      <c r="G77" s="59"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
-      <c r="J77" s="1"/>
+      <c r="J77" s="14"/>
       <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B78" s="130"/>
       <c r="C78" s="53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F78" s="24" t="s">
         <v>128</v>
@@ -3887,166 +4027,192 @@
       <c r="G78" s="60"/>
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
-      <c r="J78" s="1"/>
+      <c r="J78" s="14"/>
       <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B79" s="130"/>
-      <c r="C79" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="D79" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="E79" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F79" s="39" t="s">
-        <v>129</v>
+      <c r="C79" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="G79" s="60"/>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
-      <c r="J79" s="1"/>
+      <c r="J79" s="14"/>
       <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B80" s="130"/>
-      <c r="C80" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D80" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E80" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="F80" s="35" t="s">
-        <v>129</v>
+      <c r="C80" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="G80" s="60"/>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
-      <c r="J80" s="1"/>
+      <c r="J80" s="14"/>
       <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B81" s="130"/>
-      <c r="C81" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D81" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E81" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="F81" s="35" t="s">
+      <c r="C81" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E81" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F81" s="39" t="s">
         <v>129</v>
       </c>
       <c r="G81" s="60"/>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
-      <c r="J81" s="1"/>
+      <c r="J81" s="14"/>
       <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B82" s="130"/>
-      <c r="C82" s="54" t="s">
+      <c r="C82" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D82" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E82" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="F82" s="35" t="s">
+      <c r="D82" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F82" s="24" t="s">
         <v>129</v>
       </c>
       <c r="G82" s="60"/>
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
-      <c r="J82" s="1"/>
+      <c r="J82" s="14"/>
       <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B83" s="130"/>
-      <c r="C83" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="D83" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="E83" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="F83" s="43" t="s">
-        <v>128</v>
+      <c r="C83" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="G83" s="60"/>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
-      <c r="J83" s="1"/>
+      <c r="J83" s="14"/>
       <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B84" s="131"/>
-      <c r="C84" s="51" t="s">
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B84" s="130"/>
+      <c r="C84" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="D84" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E84" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="F84" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="G84" s="13"/>
+      <c r="D84" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F84" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G84" s="60"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
-      <c r="J84" s="1"/>
+      <c r="J84" s="14"/>
       <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B85" s="1"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B85" s="130"/>
+      <c r="C85" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="D85" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E85" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F85" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="G85" s="60"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
-      <c r="J85" s="1"/>
+      <c r="J85" s="14"/>
       <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B86" s="131"/>
+      <c r="C86" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F86" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G86" s="13"/>
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
-      <c r="J86" s="1"/>
+      <c r="J86" s="14"/>
       <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="C87" s="10"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
-      <c r="J87" s="1"/>
+      <c r="J87" s="14"/>
       <c r="K87" s="1"/>
-    </row>
-    <row r="88" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -4055,10 +4221,11 @@
       <c r="G88" s="1"/>
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
-      <c r="J88" s="1"/>
+      <c r="J88" s="14"/>
       <c r="K88" s="1"/>
-    </row>
-    <row r="89" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -4067,10 +4234,11 @@
       <c r="G89" s="1"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
-      <c r="J89" s="1"/>
+      <c r="J89" s="14"/>
       <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -4079,10 +4247,11 @@
       <c r="G90" s="1"/>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
-      <c r="J90" s="1"/>
+      <c r="J90" s="14"/>
       <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L90" s="1"/>
+    </row>
+    <row r="91" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -4091,10 +4260,11 @@
       <c r="G91" s="1"/>
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
-      <c r="J91" s="1"/>
+      <c r="J91" s="14"/>
       <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L91" s="1"/>
+    </row>
+    <row r="92" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -4103,10 +4273,11 @@
       <c r="G92" s="1"/>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
-      <c r="J92" s="1"/>
+      <c r="J92" s="14"/>
       <c r="K92" s="1"/>
-    </row>
-    <row r="93" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -4115,10 +4286,11 @@
       <c r="G93" s="1"/>
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
-      <c r="J93" s="1"/>
+      <c r="J93" s="14"/>
       <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L93" s="1"/>
+    </row>
+    <row r="94" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -4127,10 +4299,11 @@
       <c r="G94" s="1"/>
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
-      <c r="J94" s="1"/>
+      <c r="J94" s="14"/>
       <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -4139,10 +4312,11 @@
       <c r="G95" s="1"/>
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
-      <c r="J95" s="1"/>
+      <c r="J95" s="14"/>
       <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L95" s="1"/>
+    </row>
+    <row r="96" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -4151,10 +4325,11 @@
       <c r="G96" s="1"/>
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
-      <c r="J96" s="1"/>
+      <c r="J96" s="14"/>
       <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -4163,10 +4338,11 @@
       <c r="G97" s="1"/>
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
-      <c r="J97" s="1"/>
+      <c r="J97" s="14"/>
       <c r="K97" s="1"/>
-    </row>
-    <row r="98" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L97" s="1"/>
+    </row>
+    <row r="98" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -4175,10 +4351,11 @@
       <c r="G98" s="1"/>
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
-      <c r="J98" s="1"/>
+      <c r="J98" s="14"/>
       <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -4187,10 +4364,11 @@
       <c r="G99" s="1"/>
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
-      <c r="J99" s="1"/>
+      <c r="J99" s="14"/>
       <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -4199,10 +4377,11 @@
       <c r="G100" s="1"/>
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
-      <c r="J100" s="1"/>
+      <c r="J100" s="14"/>
       <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -4211,10 +4390,11 @@
       <c r="G101" s="1"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
-      <c r="J101" s="1"/>
+      <c r="J101" s="14"/>
       <c r="K101" s="1"/>
-    </row>
-    <row r="102" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L101" s="1"/>
+    </row>
+    <row r="102" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -4223,10 +4403,11 @@
       <c r="G102" s="1"/>
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
-      <c r="J102" s="1"/>
+      <c r="J102" s="14"/>
       <c r="K102" s="1"/>
-    </row>
-    <row r="103" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L102" s="1"/>
+    </row>
+    <row r="103" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -4235,10 +4416,11 @@
       <c r="G103" s="1"/>
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
-      <c r="J103" s="1"/>
+      <c r="J103" s="14"/>
       <c r="K103" s="1"/>
-    </row>
-    <row r="104" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L103" s="1"/>
+    </row>
+    <row r="104" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4247,10 +4429,11 @@
       <c r="G104" s="1"/>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
-      <c r="J104" s="1"/>
+      <c r="J104" s="14"/>
       <c r="K104" s="1"/>
-    </row>
-    <row r="105" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L104" s="1"/>
+    </row>
+    <row r="105" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4259,10 +4442,11 @@
       <c r="G105" s="1"/>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
-      <c r="J105" s="1"/>
+      <c r="J105" s="14"/>
       <c r="K105" s="1"/>
-    </row>
-    <row r="106" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -4271,10 +4455,11 @@
       <c r="G106" s="1"/>
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
-      <c r="J106" s="1"/>
+      <c r="J106" s="14"/>
       <c r="K106" s="1"/>
-    </row>
-    <row r="107" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L106" s="1"/>
+    </row>
+    <row r="107" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -4283,10 +4468,11 @@
       <c r="G107" s="1"/>
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
-      <c r="J107" s="1"/>
+      <c r="J107" s="14"/>
       <c r="K107" s="1"/>
-    </row>
-    <row r="108" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L107" s="1"/>
+    </row>
+    <row r="108" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4295,10 +4481,11 @@
       <c r="G108" s="1"/>
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
-      <c r="J108" s="1"/>
+      <c r="J108" s="14"/>
       <c r="K108" s="1"/>
-    </row>
-    <row r="109" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L108" s="1"/>
+    </row>
+    <row r="109" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4307,10 +4494,11 @@
       <c r="G109" s="1"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
-      <c r="J109" s="1"/>
+      <c r="J109" s="14"/>
       <c r="K109" s="1"/>
-    </row>
-    <row r="110" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L109" s="1"/>
+    </row>
+    <row r="110" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4319,10 +4507,11 @@
       <c r="G110" s="1"/>
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
-      <c r="J110" s="1"/>
+      <c r="J110" s="14"/>
       <c r="K110" s="1"/>
-    </row>
-    <row r="111" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L110" s="1"/>
+    </row>
+    <row r="111" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4331,10 +4520,11 @@
       <c r="G111" s="1"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
-      <c r="J111" s="1"/>
+      <c r="J111" s="14"/>
       <c r="K111" s="1"/>
-    </row>
-    <row r="112" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L111" s="1"/>
+    </row>
+    <row r="112" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4343,10 +4533,11 @@
       <c r="G112" s="1"/>
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
-      <c r="J112" s="1"/>
+      <c r="J112" s="14"/>
       <c r="K112" s="1"/>
-    </row>
-    <row r="113" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L112" s="1"/>
+    </row>
+    <row r="113" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4355,10 +4546,11 @@
       <c r="G113" s="1"/>
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
-      <c r="J113" s="1"/>
+      <c r="J113" s="14"/>
       <c r="K113" s="1"/>
-    </row>
-    <row r="114" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L113" s="1"/>
+    </row>
+    <row r="114" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4367,10 +4559,11 @@
       <c r="G114" s="1"/>
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
-      <c r="J114" s="1"/>
+      <c r="J114" s="14"/>
       <c r="K114" s="1"/>
-    </row>
-    <row r="115" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L114" s="1"/>
+    </row>
+    <row r="115" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4379,10 +4572,11 @@
       <c r="G115" s="1"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
-      <c r="J115" s="1"/>
+      <c r="J115" s="14"/>
       <c r="K115" s="1"/>
-    </row>
-    <row r="116" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L115" s="1"/>
+    </row>
+    <row r="116" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4391,10 +4585,11 @@
       <c r="G116" s="1"/>
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
-      <c r="J116" s="1"/>
+      <c r="J116" s="14"/>
       <c r="K116" s="1"/>
-    </row>
-    <row r="117" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L116" s="1"/>
+    </row>
+    <row r="117" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4403,10 +4598,11 @@
       <c r="G117" s="1"/>
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
-      <c r="J117" s="1"/>
+      <c r="J117" s="14"/>
       <c r="K117" s="1"/>
-    </row>
-    <row r="118" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L117" s="1"/>
+    </row>
+    <row r="118" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4415,10 +4611,11 @@
       <c r="G118" s="1"/>
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
-      <c r="J118" s="1"/>
+      <c r="J118" s="14"/>
       <c r="K118" s="1"/>
-    </row>
-    <row r="119" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L118" s="1"/>
+    </row>
+    <row r="119" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4427,10 +4624,11 @@
       <c r="G119" s="1"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
-      <c r="J119" s="1"/>
+      <c r="J119" s="14"/>
       <c r="K119" s="1"/>
-    </row>
-    <row r="120" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L119" s="1"/>
+    </row>
+    <row r="120" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4439,10 +4637,11 @@
       <c r="G120" s="1"/>
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
-      <c r="J120" s="1"/>
+      <c r="J120" s="14"/>
       <c r="K120" s="1"/>
-    </row>
-    <row r="121" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L120" s="1"/>
+    </row>
+    <row r="121" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4451,10 +4650,11 @@
       <c r="G121" s="1"/>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
-      <c r="J121" s="1"/>
+      <c r="J121" s="14"/>
       <c r="K121" s="1"/>
-    </row>
-    <row r="122" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L121" s="1"/>
+    </row>
+    <row r="122" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4463,10 +4663,11 @@
       <c r="G122" s="1"/>
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
-      <c r="J122" s="1"/>
+      <c r="J122" s="14"/>
       <c r="K122" s="1"/>
-    </row>
-    <row r="123" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L122" s="1"/>
+    </row>
+    <row r="123" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4475,10 +4676,11 @@
       <c r="G123" s="1"/>
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
-      <c r="J123" s="1"/>
+      <c r="J123" s="14"/>
       <c r="K123" s="1"/>
-    </row>
-    <row r="124" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L123" s="1"/>
+    </row>
+    <row r="124" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4487,10 +4689,11 @@
       <c r="G124" s="1"/>
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
-      <c r="J124" s="1"/>
+      <c r="J124" s="14"/>
       <c r="K124" s="1"/>
-    </row>
-    <row r="125" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L124" s="1"/>
+    </row>
+    <row r="125" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4499,10 +4702,11 @@
       <c r="G125" s="1"/>
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
-      <c r="J125" s="1"/>
+      <c r="J125" s="14"/>
       <c r="K125" s="1"/>
-    </row>
-    <row r="126" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L125" s="1"/>
+    </row>
+    <row r="126" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4511,10 +4715,11 @@
       <c r="G126" s="1"/>
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
-      <c r="J126" s="1"/>
+      <c r="J126" s="14"/>
       <c r="K126" s="1"/>
-    </row>
-    <row r="127" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L126" s="1"/>
+    </row>
+    <row r="127" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -4523,10 +4728,11 @@
       <c r="G127" s="1"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
-      <c r="J127" s="1"/>
+      <c r="J127" s="14"/>
       <c r="K127" s="1"/>
-    </row>
-    <row r="128" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L127" s="1"/>
+    </row>
+    <row r="128" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4535,10 +4741,11 @@
       <c r="G128" s="1"/>
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
-      <c r="J128" s="1"/>
+      <c r="J128" s="14"/>
       <c r="K128" s="1"/>
-    </row>
-    <row r="129" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L128" s="1"/>
+    </row>
+    <row r="129" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4547,10 +4754,11 @@
       <c r="G129" s="1"/>
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
-      <c r="J129" s="1"/>
+      <c r="J129" s="14"/>
       <c r="K129" s="1"/>
-    </row>
-    <row r="130" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L129" s="1"/>
+    </row>
+    <row r="130" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4559,10 +4767,11 @@
       <c r="G130" s="1"/>
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
-      <c r="J130" s="1"/>
+      <c r="J130" s="14"/>
       <c r="K130" s="1"/>
-    </row>
-    <row r="131" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L130" s="1"/>
+    </row>
+    <row r="131" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4571,10 +4780,11 @@
       <c r="G131" s="1"/>
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
-      <c r="J131" s="1"/>
+      <c r="J131" s="14"/>
       <c r="K131" s="1"/>
-    </row>
-    <row r="132" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L131" s="1"/>
+    </row>
+    <row r="132" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4583,10 +4793,11 @@
       <c r="G132" s="1"/>
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
-      <c r="J132" s="1"/>
+      <c r="J132" s="14"/>
       <c r="K132" s="1"/>
-    </row>
-    <row r="133" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L132" s="1"/>
+    </row>
+    <row r="133" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4595,10 +4806,11 @@
       <c r="G133" s="1"/>
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
-      <c r="J133" s="1"/>
+      <c r="J133" s="14"/>
       <c r="K133" s="1"/>
-    </row>
-    <row r="134" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L133" s="1"/>
+    </row>
+    <row r="134" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4607,10 +4819,11 @@
       <c r="G134" s="1"/>
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
-      <c r="J134" s="1"/>
+      <c r="J134" s="14"/>
       <c r="K134" s="1"/>
-    </row>
-    <row r="135" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L134" s="1"/>
+    </row>
+    <row r="135" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -4619,10 +4832,11 @@
       <c r="G135" s="1"/>
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
-      <c r="J135" s="1"/>
+      <c r="J135" s="14"/>
       <c r="K135" s="1"/>
-    </row>
-    <row r="136" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L135" s="1"/>
+    </row>
+    <row r="136" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4631,10 +4845,11 @@
       <c r="G136" s="1"/>
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
-      <c r="J136" s="1"/>
+      <c r="J136" s="14"/>
       <c r="K136" s="1"/>
-    </row>
-    <row r="137" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L136" s="1"/>
+    </row>
+    <row r="137" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -4643,10 +4858,11 @@
       <c r="G137" s="1"/>
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
-      <c r="J137" s="1"/>
+      <c r="J137" s="14"/>
       <c r="K137" s="1"/>
-    </row>
-    <row r="138" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L137" s="1"/>
+    </row>
+    <row r="138" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4655,10 +4871,11 @@
       <c r="G138" s="1"/>
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
-      <c r="J138" s="1"/>
+      <c r="J138" s="14"/>
       <c r="K138" s="1"/>
-    </row>
-    <row r="139" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L138" s="1"/>
+    </row>
+    <row r="139" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -4667,10 +4884,11 @@
       <c r="G139" s="1"/>
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
-      <c r="J139" s="1"/>
+      <c r="J139" s="14"/>
       <c r="K139" s="1"/>
-    </row>
-    <row r="140" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L139" s="1"/>
+    </row>
+    <row r="140" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4679,10 +4897,11 @@
       <c r="G140" s="1"/>
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
-      <c r="J140" s="1"/>
+      <c r="J140" s="14"/>
       <c r="K140" s="1"/>
-    </row>
-    <row r="141" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L140" s="1"/>
+    </row>
+    <row r="141" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4691,10 +4910,11 @@
       <c r="G141" s="1"/>
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
-      <c r="J141" s="1"/>
+      <c r="J141" s="14"/>
       <c r="K141" s="1"/>
-    </row>
-    <row r="142" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L141" s="1"/>
+    </row>
+    <row r="142" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4703,10 +4923,11 @@
       <c r="G142" s="1"/>
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
-      <c r="J142" s="1"/>
+      <c r="J142" s="14"/>
       <c r="K142" s="1"/>
-    </row>
-    <row r="143" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L142" s="1"/>
+    </row>
+    <row r="143" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4715,10 +4936,11 @@
       <c r="G143" s="1"/>
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
-      <c r="J143" s="1"/>
+      <c r="J143" s="14"/>
       <c r="K143" s="1"/>
-    </row>
-    <row r="144" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L143" s="1"/>
+    </row>
+    <row r="144" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -4727,10 +4949,11 @@
       <c r="G144" s="1"/>
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
-      <c r="J144" s="1"/>
+      <c r="J144" s="14"/>
       <c r="K144" s="1"/>
-    </row>
-    <row r="145" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L144" s="1"/>
+    </row>
+    <row r="145" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -4739,10 +4962,11 @@
       <c r="G145" s="1"/>
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
-      <c r="J145" s="1"/>
+      <c r="J145" s="14"/>
       <c r="K145" s="1"/>
-    </row>
-    <row r="146" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L145" s="1"/>
+    </row>
+    <row r="146" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -4751,10 +4975,11 @@
       <c r="G146" s="1"/>
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
-      <c r="J146" s="1"/>
+      <c r="J146" s="14"/>
       <c r="K146" s="1"/>
-    </row>
-    <row r="147" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L146" s="1"/>
+    </row>
+    <row r="147" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -4763,10 +4988,11 @@
       <c r="G147" s="1"/>
       <c r="H147" s="14"/>
       <c r="I147" s="14"/>
-      <c r="J147" s="1"/>
+      <c r="J147" s="14"/>
       <c r="K147" s="1"/>
-    </row>
-    <row r="148" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L147" s="1"/>
+    </row>
+    <row r="148" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -4775,10 +5001,11 @@
       <c r="G148" s="1"/>
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
-      <c r="J148" s="1"/>
+      <c r="J148" s="14"/>
       <c r="K148" s="1"/>
-    </row>
-    <row r="149" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L148" s="1"/>
+    </row>
+    <row r="149" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -4787,10 +5014,11 @@
       <c r="G149" s="1"/>
       <c r="H149" s="14"/>
       <c r="I149" s="14"/>
-      <c r="J149" s="1"/>
+      <c r="J149" s="14"/>
       <c r="K149" s="1"/>
-    </row>
-    <row r="150" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L149" s="1"/>
+    </row>
+    <row r="150" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -4799,10 +5027,11 @@
       <c r="G150" s="1"/>
       <c r="H150" s="14"/>
       <c r="I150" s="14"/>
-      <c r="J150" s="1"/>
+      <c r="J150" s="14"/>
       <c r="K150" s="1"/>
-    </row>
-    <row r="151" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L150" s="1"/>
+    </row>
+    <row r="151" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -4811,10 +5040,11 @@
       <c r="G151" s="1"/>
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
-      <c r="J151" s="1"/>
+      <c r="J151" s="14"/>
       <c r="K151" s="1"/>
-    </row>
-    <row r="152" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L151" s="1"/>
+    </row>
+    <row r="152" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -4823,10 +5053,11 @@
       <c r="G152" s="1"/>
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
-      <c r="J152" s="1"/>
+      <c r="J152" s="14"/>
       <c r="K152" s="1"/>
-    </row>
-    <row r="153" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L152" s="1"/>
+    </row>
+    <row r="153" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -4835,10 +5066,11 @@
       <c r="G153" s="1"/>
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
-      <c r="J153" s="1"/>
+      <c r="J153" s="14"/>
       <c r="K153" s="1"/>
-    </row>
-    <row r="154" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L153" s="1"/>
+    </row>
+    <row r="154" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -4847,10 +5079,11 @@
       <c r="G154" s="1"/>
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
-      <c r="J154" s="1"/>
+      <c r="J154" s="14"/>
       <c r="K154" s="1"/>
-    </row>
-    <row r="155" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L154" s="1"/>
+    </row>
+    <row r="155" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -4859,10 +5092,11 @@
       <c r="G155" s="1"/>
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
-      <c r="J155" s="1"/>
+      <c r="J155" s="14"/>
       <c r="K155" s="1"/>
-    </row>
-    <row r="156" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L155" s="1"/>
+    </row>
+    <row r="156" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -4871,10 +5105,11 @@
       <c r="G156" s="1"/>
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
-      <c r="J156" s="1"/>
+      <c r="J156" s="14"/>
       <c r="K156" s="1"/>
-    </row>
-    <row r="157" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L156" s="1"/>
+    </row>
+    <row r="157" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -4883,10 +5118,11 @@
       <c r="G157" s="1"/>
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
-      <c r="J157" s="1"/>
+      <c r="J157" s="14"/>
       <c r="K157" s="1"/>
-    </row>
-    <row r="158" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L157" s="1"/>
+    </row>
+    <row r="158" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -4895,10 +5131,11 @@
       <c r="G158" s="1"/>
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
-      <c r="J158" s="1"/>
+      <c r="J158" s="14"/>
       <c r="K158" s="1"/>
-    </row>
-    <row r="159" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L158" s="1"/>
+    </row>
+    <row r="159" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -4907,10 +5144,11 @@
       <c r="G159" s="1"/>
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
-      <c r="J159" s="1"/>
+      <c r="J159" s="14"/>
       <c r="K159" s="1"/>
-    </row>
-    <row r="160" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L159" s="1"/>
+    </row>
+    <row r="160" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -4919,10 +5157,11 @@
       <c r="G160" s="1"/>
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
-      <c r="J160" s="1"/>
+      <c r="J160" s="14"/>
       <c r="K160" s="1"/>
-    </row>
-    <row r="161" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L160" s="1"/>
+    </row>
+    <row r="161" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -4931,10 +5170,11 @@
       <c r="G161" s="1"/>
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
-      <c r="J161" s="1"/>
+      <c r="J161" s="14"/>
       <c r="K161" s="1"/>
-    </row>
-    <row r="162" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L161" s="1"/>
+    </row>
+    <row r="162" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -4943,10 +5183,11 @@
       <c r="G162" s="1"/>
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
-      <c r="J162" s="1"/>
+      <c r="J162" s="14"/>
       <c r="K162" s="1"/>
-    </row>
-    <row r="163" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L162" s="1"/>
+    </row>
+    <row r="163" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -4955,10 +5196,11 @@
       <c r="G163" s="1"/>
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
-      <c r="J163" s="1"/>
+      <c r="J163" s="14"/>
       <c r="K163" s="1"/>
-    </row>
-    <row r="164" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L163" s="1"/>
+    </row>
+    <row r="164" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -4967,10 +5209,11 @@
       <c r="G164" s="1"/>
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
-      <c r="J164" s="1"/>
+      <c r="J164" s="14"/>
       <c r="K164" s="1"/>
-    </row>
-    <row r="165" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L164" s="1"/>
+    </row>
+    <row r="165" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -4979,10 +5222,11 @@
       <c r="G165" s="1"/>
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
-      <c r="J165" s="1"/>
+      <c r="J165" s="14"/>
       <c r="K165" s="1"/>
-    </row>
-    <row r="166" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L165" s="1"/>
+    </row>
+    <row r="166" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -4991,10 +5235,11 @@
       <c r="G166" s="1"/>
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
-      <c r="J166" s="1"/>
+      <c r="J166" s="14"/>
       <c r="K166" s="1"/>
-    </row>
-    <row r="167" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L166" s="1"/>
+    </row>
+    <row r="167" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -5003,10 +5248,11 @@
       <c r="G167" s="1"/>
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
-      <c r="J167" s="1"/>
+      <c r="J167" s="14"/>
       <c r="K167" s="1"/>
-    </row>
-    <row r="168" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L167" s="1"/>
+    </row>
+    <row r="168" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -5015,10 +5261,11 @@
       <c r="G168" s="1"/>
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
-      <c r="J168" s="1"/>
+      <c r="J168" s="14"/>
       <c r="K168" s="1"/>
-    </row>
-    <row r="169" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L168" s="1"/>
+    </row>
+    <row r="169" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -5027,10 +5274,11 @@
       <c r="G169" s="1"/>
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
-      <c r="J169" s="1"/>
+      <c r="J169" s="14"/>
       <c r="K169" s="1"/>
-    </row>
-    <row r="170" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L169" s="1"/>
+    </row>
+    <row r="170" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -5039,10 +5287,11 @@
       <c r="G170" s="1"/>
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
-      <c r="J170" s="1"/>
+      <c r="J170" s="14"/>
       <c r="K170" s="1"/>
-    </row>
-    <row r="171" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L170" s="1"/>
+    </row>
+    <row r="171" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -5051,10 +5300,11 @@
       <c r="G171" s="1"/>
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
-      <c r="J171" s="1"/>
+      <c r="J171" s="14"/>
       <c r="K171" s="1"/>
-    </row>
-    <row r="172" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L171" s="1"/>
+    </row>
+    <row r="172" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -5063,10 +5313,11 @@
       <c r="G172" s="1"/>
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
-      <c r="J172" s="1"/>
+      <c r="J172" s="14"/>
       <c r="K172" s="1"/>
-    </row>
-    <row r="173" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L172" s="1"/>
+    </row>
+    <row r="173" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -5075,10 +5326,11 @@
       <c r="G173" s="1"/>
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
-      <c r="J173" s="1"/>
+      <c r="J173" s="14"/>
       <c r="K173" s="1"/>
-    </row>
-    <row r="174" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L173" s="1"/>
+    </row>
+    <row r="174" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -5087,10 +5339,11 @@
       <c r="G174" s="1"/>
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
-      <c r="J174" s="1"/>
+      <c r="J174" s="14"/>
       <c r="K174" s="1"/>
-    </row>
-    <row r="175" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L174" s="1"/>
+    </row>
+    <row r="175" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -5099,10 +5352,11 @@
       <c r="G175" s="1"/>
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
-      <c r="J175" s="1"/>
+      <c r="J175" s="14"/>
       <c r="K175" s="1"/>
-    </row>
-    <row r="176" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L175" s="1"/>
+    </row>
+    <row r="176" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -5111,10 +5365,11 @@
       <c r="G176" s="1"/>
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
-      <c r="J176" s="1"/>
+      <c r="J176" s="14"/>
       <c r="K176" s="1"/>
-    </row>
-    <row r="177" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L176" s="1"/>
+    </row>
+    <row r="177" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -5123,10 +5378,11 @@
       <c r="G177" s="1"/>
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
-      <c r="J177" s="1"/>
+      <c r="J177" s="14"/>
       <c r="K177" s="1"/>
-    </row>
-    <row r="178" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L177" s="1"/>
+    </row>
+    <row r="178" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -5135,10 +5391,11 @@
       <c r="G178" s="1"/>
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
-      <c r="J178" s="1"/>
+      <c r="J178" s="14"/>
       <c r="K178" s="1"/>
-    </row>
-    <row r="179" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L178" s="1"/>
+    </row>
+    <row r="179" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -5147,10 +5404,11 @@
       <c r="G179" s="1"/>
       <c r="H179" s="14"/>
       <c r="I179" s="14"/>
-      <c r="J179" s="1"/>
+      <c r="J179" s="14"/>
       <c r="K179" s="1"/>
-    </row>
-    <row r="180" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L179" s="1"/>
+    </row>
+    <row r="180" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -5159,10 +5417,11 @@
       <c r="G180" s="1"/>
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
-      <c r="J180" s="1"/>
+      <c r="J180" s="14"/>
       <c r="K180" s="1"/>
-    </row>
-    <row r="181" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L180" s="1"/>
+    </row>
+    <row r="181" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -5171,10 +5430,11 @@
       <c r="G181" s="1"/>
       <c r="H181" s="14"/>
       <c r="I181" s="14"/>
-      <c r="J181" s="1"/>
+      <c r="J181" s="14"/>
       <c r="K181" s="1"/>
-    </row>
-    <row r="182" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L181" s="1"/>
+    </row>
+    <row r="182" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -5183,10 +5443,11 @@
       <c r="G182" s="1"/>
       <c r="H182" s="14"/>
       <c r="I182" s="14"/>
-      <c r="J182" s="1"/>
+      <c r="J182" s="14"/>
       <c r="K182" s="1"/>
-    </row>
-    <row r="183" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L182" s="1"/>
+    </row>
+    <row r="183" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -5195,10 +5456,11 @@
       <c r="G183" s="1"/>
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
-      <c r="J183" s="1"/>
+      <c r="J183" s="14"/>
       <c r="K183" s="1"/>
-    </row>
-    <row r="184" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L183" s="1"/>
+    </row>
+    <row r="184" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -5207,10 +5469,11 @@
       <c r="G184" s="1"/>
       <c r="H184" s="14"/>
       <c r="I184" s="14"/>
-      <c r="J184" s="1"/>
+      <c r="J184" s="14"/>
       <c r="K184" s="1"/>
-    </row>
-    <row r="185" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L184" s="1"/>
+    </row>
+    <row r="185" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -5219,10 +5482,11 @@
       <c r="G185" s="1"/>
       <c r="H185" s="14"/>
       <c r="I185" s="14"/>
-      <c r="J185" s="1"/>
+      <c r="J185" s="14"/>
       <c r="K185" s="1"/>
-    </row>
-    <row r="186" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L185" s="1"/>
+    </row>
+    <row r="186" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -5231,10 +5495,11 @@
       <c r="G186" s="1"/>
       <c r="H186" s="14"/>
       <c r="I186" s="14"/>
-      <c r="J186" s="1"/>
+      <c r="J186" s="14"/>
       <c r="K186" s="1"/>
-    </row>
-    <row r="187" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L186" s="1"/>
+    </row>
+    <row r="187" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -5243,10 +5508,11 @@
       <c r="G187" s="1"/>
       <c r="H187" s="14"/>
       <c r="I187" s="14"/>
-      <c r="J187" s="1"/>
+      <c r="J187" s="14"/>
       <c r="K187" s="1"/>
-    </row>
-    <row r="188" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L187" s="1"/>
+    </row>
+    <row r="188" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -5255,10 +5521,11 @@
       <c r="G188" s="1"/>
       <c r="H188" s="14"/>
       <c r="I188" s="14"/>
-      <c r="J188" s="1"/>
+      <c r="J188" s="14"/>
       <c r="K188" s="1"/>
-    </row>
-    <row r="189" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L188" s="1"/>
+    </row>
+    <row r="189" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -5267,10 +5534,11 @@
       <c r="G189" s="1"/>
       <c r="H189" s="14"/>
       <c r="I189" s="14"/>
-      <c r="J189" s="1"/>
+      <c r="J189" s="14"/>
       <c r="K189" s="1"/>
-    </row>
-    <row r="190" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L189" s="1"/>
+    </row>
+    <row r="190" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -5279,10 +5547,11 @@
       <c r="G190" s="1"/>
       <c r="H190" s="14"/>
       <c r="I190" s="14"/>
-      <c r="J190" s="1"/>
+      <c r="J190" s="14"/>
       <c r="K190" s="1"/>
-    </row>
-    <row r="191" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L190" s="1"/>
+    </row>
+    <row r="191" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -5291,10 +5560,11 @@
       <c r="G191" s="1"/>
       <c r="H191" s="14"/>
       <c r="I191" s="14"/>
-      <c r="J191" s="1"/>
+      <c r="J191" s="14"/>
       <c r="K191" s="1"/>
-    </row>
-    <row r="192" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L191" s="1"/>
+    </row>
+    <row r="192" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -5303,10 +5573,11 @@
       <c r="G192" s="1"/>
       <c r="H192" s="14"/>
       <c r="I192" s="14"/>
-      <c r="J192" s="1"/>
+      <c r="J192" s="14"/>
       <c r="K192" s="1"/>
-    </row>
-    <row r="193" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L192" s="1"/>
+    </row>
+    <row r="193" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -5315,10 +5586,11 @@
       <c r="G193" s="1"/>
       <c r="H193" s="14"/>
       <c r="I193" s="14"/>
-      <c r="J193" s="1"/>
+      <c r="J193" s="14"/>
       <c r="K193" s="1"/>
-    </row>
-    <row r="194" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L193" s="1"/>
+    </row>
+    <row r="194" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -5327,10 +5599,11 @@
       <c r="G194" s="1"/>
       <c r="H194" s="14"/>
       <c r="I194" s="14"/>
-      <c r="J194" s="1"/>
+      <c r="J194" s="14"/>
       <c r="K194" s="1"/>
-    </row>
-    <row r="195" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L194" s="1"/>
+    </row>
+    <row r="195" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -5339,10 +5612,11 @@
       <c r="G195" s="1"/>
       <c r="H195" s="14"/>
       <c r="I195" s="14"/>
-      <c r="J195" s="1"/>
+      <c r="J195" s="14"/>
       <c r="K195" s="1"/>
-    </row>
-    <row r="196" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L195" s="1"/>
+    </row>
+    <row r="196" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -5351,10 +5625,11 @@
       <c r="G196" s="1"/>
       <c r="H196" s="14"/>
       <c r="I196" s="14"/>
-      <c r="J196" s="1"/>
+      <c r="J196" s="14"/>
       <c r="K196" s="1"/>
-    </row>
-    <row r="197" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L196" s="1"/>
+    </row>
+    <row r="197" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -5363,10 +5638,11 @@
       <c r="G197" s="1"/>
       <c r="H197" s="14"/>
       <c r="I197" s="14"/>
-      <c r="J197" s="1"/>
+      <c r="J197" s="14"/>
       <c r="K197" s="1"/>
-    </row>
-    <row r="198" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L197" s="1"/>
+    </row>
+    <row r="198" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -5375,10 +5651,11 @@
       <c r="G198" s="1"/>
       <c r="H198" s="14"/>
       <c r="I198" s="14"/>
-      <c r="J198" s="1"/>
+      <c r="J198" s="14"/>
       <c r="K198" s="1"/>
-    </row>
-    <row r="199" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L198" s="1"/>
+    </row>
+    <row r="199" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -5387,10 +5664,11 @@
       <c r="G199" s="1"/>
       <c r="H199" s="14"/>
       <c r="I199" s="14"/>
-      <c r="J199" s="1"/>
+      <c r="J199" s="14"/>
       <c r="K199" s="1"/>
-    </row>
-    <row r="200" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L199" s="1"/>
+    </row>
+    <row r="200" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -5399,10 +5677,11 @@
       <c r="G200" s="1"/>
       <c r="H200" s="14"/>
       <c r="I200" s="14"/>
-      <c r="J200" s="1"/>
+      <c r="J200" s="14"/>
       <c r="K200" s="1"/>
-    </row>
-    <row r="201" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L200" s="1"/>
+    </row>
+    <row r="201" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -5411,10 +5690,11 @@
       <c r="G201" s="1"/>
       <c r="H201" s="14"/>
       <c r="I201" s="14"/>
-      <c r="J201" s="1"/>
+      <c r="J201" s="14"/>
       <c r="K201" s="1"/>
-    </row>
-    <row r="202" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L201" s="1"/>
+    </row>
+    <row r="202" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -5423,10 +5703,11 @@
       <c r="G202" s="1"/>
       <c r="H202" s="14"/>
       <c r="I202" s="14"/>
-      <c r="J202" s="1"/>
+      <c r="J202" s="14"/>
       <c r="K202" s="1"/>
-    </row>
-    <row r="203" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L202" s="1"/>
+    </row>
+    <row r="203" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -5435,10 +5716,11 @@
       <c r="G203" s="1"/>
       <c r="H203" s="14"/>
       <c r="I203" s="14"/>
-      <c r="J203" s="1"/>
+      <c r="J203" s="14"/>
       <c r="K203" s="1"/>
-    </row>
-    <row r="204" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L203" s="1"/>
+    </row>
+    <row r="204" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -5447,10 +5729,11 @@
       <c r="G204" s="1"/>
       <c r="H204" s="14"/>
       <c r="I204" s="14"/>
-      <c r="J204" s="1"/>
+      <c r="J204" s="14"/>
       <c r="K204" s="1"/>
-    </row>
-    <row r="205" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L204" s="1"/>
+    </row>
+    <row r="205" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -5459,10 +5742,11 @@
       <c r="G205" s="1"/>
       <c r="H205" s="14"/>
       <c r="I205" s="14"/>
-      <c r="J205" s="1"/>
+      <c r="J205" s="14"/>
       <c r="K205" s="1"/>
-    </row>
-    <row r="206" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L205" s="1"/>
+    </row>
+    <row r="206" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -5471,10 +5755,11 @@
       <c r="G206" s="1"/>
       <c r="H206" s="14"/>
       <c r="I206" s="14"/>
-      <c r="J206" s="1"/>
+      <c r="J206" s="14"/>
       <c r="K206" s="1"/>
-    </row>
-    <row r="207" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L206" s="1"/>
+    </row>
+    <row r="207" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -5483,10 +5768,11 @@
       <c r="G207" s="1"/>
       <c r="H207" s="14"/>
       <c r="I207" s="14"/>
-      <c r="J207" s="1"/>
+      <c r="J207" s="14"/>
       <c r="K207" s="1"/>
-    </row>
-    <row r="208" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L207" s="1"/>
+    </row>
+    <row r="208" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -5495,10 +5781,11 @@
       <c r="G208" s="1"/>
       <c r="H208" s="14"/>
       <c r="I208" s="14"/>
-      <c r="J208" s="1"/>
+      <c r="J208" s="14"/>
       <c r="K208" s="1"/>
-    </row>
-    <row r="209" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L208" s="1"/>
+    </row>
+    <row r="209" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -5507,10 +5794,11 @@
       <c r="G209" s="1"/>
       <c r="H209" s="14"/>
       <c r="I209" s="14"/>
-      <c r="J209" s="1"/>
+      <c r="J209" s="14"/>
       <c r="K209" s="1"/>
-    </row>
-    <row r="210" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L209" s="1"/>
+    </row>
+    <row r="210" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -5519,10 +5807,11 @@
       <c r="G210" s="1"/>
       <c r="H210" s="14"/>
       <c r="I210" s="14"/>
-      <c r="J210" s="1"/>
+      <c r="J210" s="14"/>
       <c r="K210" s="1"/>
-    </row>
-    <row r="211" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L210" s="1"/>
+    </row>
+    <row r="211" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -5531,10 +5820,11 @@
       <c r="G211" s="1"/>
       <c r="H211" s="14"/>
       <c r="I211" s="14"/>
-      <c r="J211" s="1"/>
+      <c r="J211" s="14"/>
       <c r="K211" s="1"/>
-    </row>
-    <row r="212" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L211" s="1"/>
+    </row>
+    <row r="212" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -5543,10 +5833,11 @@
       <c r="G212" s="1"/>
       <c r="H212" s="14"/>
       <c r="I212" s="14"/>
-      <c r="J212" s="1"/>
+      <c r="J212" s="14"/>
       <c r="K212" s="1"/>
-    </row>
-    <row r="213" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L212" s="1"/>
+    </row>
+    <row r="213" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -5555,10 +5846,11 @@
       <c r="G213" s="1"/>
       <c r="H213" s="14"/>
       <c r="I213" s="14"/>
-      <c r="J213" s="1"/>
+      <c r="J213" s="14"/>
       <c r="K213" s="1"/>
-    </row>
-    <row r="214" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L213" s="1"/>
+    </row>
+    <row r="214" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -5567,10 +5859,11 @@
       <c r="G214" s="1"/>
       <c r="H214" s="14"/>
       <c r="I214" s="14"/>
-      <c r="J214" s="1"/>
+      <c r="J214" s="14"/>
       <c r="K214" s="1"/>
-    </row>
-    <row r="215" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L214" s="1"/>
+    </row>
+    <row r="215" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -5579,10 +5872,11 @@
       <c r="G215" s="1"/>
       <c r="H215" s="14"/>
       <c r="I215" s="14"/>
-      <c r="J215" s="1"/>
+      <c r="J215" s="14"/>
       <c r="K215" s="1"/>
-    </row>
-    <row r="216" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L215" s="1"/>
+    </row>
+    <row r="216" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -5591,10 +5885,11 @@
       <c r="G216" s="1"/>
       <c r="H216" s="14"/>
       <c r="I216" s="14"/>
-      <c r="J216" s="1"/>
+      <c r="J216" s="14"/>
       <c r="K216" s="1"/>
-    </row>
-    <row r="217" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L216" s="1"/>
+    </row>
+    <row r="217" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -5603,10 +5898,11 @@
       <c r="G217" s="1"/>
       <c r="H217" s="14"/>
       <c r="I217" s="14"/>
-      <c r="J217" s="1"/>
+      <c r="J217" s="14"/>
       <c r="K217" s="1"/>
-    </row>
-    <row r="218" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L217" s="1"/>
+    </row>
+    <row r="218" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -5615,10 +5911,11 @@
       <c r="G218" s="1"/>
       <c r="H218" s="14"/>
       <c r="I218" s="14"/>
-      <c r="J218" s="1"/>
+      <c r="J218" s="14"/>
       <c r="K218" s="1"/>
-    </row>
-    <row r="219" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L218" s="1"/>
+    </row>
+    <row r="219" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -5627,10 +5924,11 @@
       <c r="G219" s="1"/>
       <c r="H219" s="14"/>
       <c r="I219" s="14"/>
-      <c r="J219" s="1"/>
+      <c r="J219" s="14"/>
       <c r="K219" s="1"/>
-    </row>
-    <row r="220" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L219" s="1"/>
+    </row>
+    <row r="220" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -5639,10 +5937,11 @@
       <c r="G220" s="1"/>
       <c r="H220" s="14"/>
       <c r="I220" s="14"/>
-      <c r="J220" s="1"/>
+      <c r="J220" s="14"/>
       <c r="K220" s="1"/>
-    </row>
-    <row r="221" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L220" s="1"/>
+    </row>
+    <row r="221" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -5651,10 +5950,11 @@
       <c r="G221" s="1"/>
       <c r="H221" s="14"/>
       <c r="I221" s="14"/>
-      <c r="J221" s="1"/>
+      <c r="J221" s="14"/>
       <c r="K221" s="1"/>
-    </row>
-    <row r="222" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L221" s="1"/>
+    </row>
+    <row r="222" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -5663,10 +5963,11 @@
       <c r="G222" s="1"/>
       <c r="H222" s="14"/>
       <c r="I222" s="14"/>
-      <c r="J222" s="1"/>
+      <c r="J222" s="14"/>
       <c r="K222" s="1"/>
-    </row>
-    <row r="223" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L222" s="1"/>
+    </row>
+    <row r="223" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -5675,10 +5976,11 @@
       <c r="G223" s="1"/>
       <c r="H223" s="14"/>
       <c r="I223" s="14"/>
-      <c r="J223" s="1"/>
+      <c r="J223" s="14"/>
       <c r="K223" s="1"/>
-    </row>
-    <row r="224" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L223" s="1"/>
+    </row>
+    <row r="224" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -5687,10 +5989,11 @@
       <c r="G224" s="1"/>
       <c r="H224" s="14"/>
       <c r="I224" s="14"/>
-      <c r="J224" s="1"/>
+      <c r="J224" s="14"/>
       <c r="K224" s="1"/>
-    </row>
-    <row r="225" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L224" s="1"/>
+    </row>
+    <row r="225" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -5699,10 +6002,11 @@
       <c r="G225" s="1"/>
       <c r="H225" s="14"/>
       <c r="I225" s="14"/>
-      <c r="J225" s="1"/>
+      <c r="J225" s="14"/>
       <c r="K225" s="1"/>
-    </row>
-    <row r="226" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L225" s="1"/>
+    </row>
+    <row r="226" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -5711,10 +6015,11 @@
       <c r="G226" s="1"/>
       <c r="H226" s="14"/>
       <c r="I226" s="14"/>
-      <c r="J226" s="1"/>
+      <c r="J226" s="14"/>
       <c r="K226" s="1"/>
-    </row>
-    <row r="227" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L226" s="1"/>
+    </row>
+    <row r="227" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -5723,10 +6028,11 @@
       <c r="G227" s="1"/>
       <c r="H227" s="14"/>
       <c r="I227" s="14"/>
-      <c r="J227" s="1"/>
+      <c r="J227" s="14"/>
       <c r="K227" s="1"/>
-    </row>
-    <row r="228" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L227" s="1"/>
+    </row>
+    <row r="228" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -5735,10 +6041,11 @@
       <c r="G228" s="1"/>
       <c r="H228" s="14"/>
       <c r="I228" s="14"/>
-      <c r="J228" s="1"/>
+      <c r="J228" s="14"/>
       <c r="K228" s="1"/>
-    </row>
-    <row r="229" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L228" s="1"/>
+    </row>
+    <row r="229" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -5747,10 +6054,11 @@
       <c r="G229" s="1"/>
       <c r="H229" s="14"/>
       <c r="I229" s="14"/>
-      <c r="J229" s="1"/>
+      <c r="J229" s="14"/>
       <c r="K229" s="1"/>
-    </row>
-    <row r="230" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L229" s="1"/>
+    </row>
+    <row r="230" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -5759,10 +6067,11 @@
       <c r="G230" s="1"/>
       <c r="H230" s="14"/>
       <c r="I230" s="14"/>
-      <c r="J230" s="1"/>
+      <c r="J230" s="14"/>
       <c r="K230" s="1"/>
-    </row>
-    <row r="231" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L230" s="1"/>
+    </row>
+    <row r="231" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -5771,10 +6080,11 @@
       <c r="G231" s="1"/>
       <c r="H231" s="14"/>
       <c r="I231" s="14"/>
-      <c r="J231" s="1"/>
+      <c r="J231" s="14"/>
       <c r="K231" s="1"/>
-    </row>
-    <row r="232" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L231" s="1"/>
+    </row>
+    <row r="232" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -5783,10 +6093,11 @@
       <c r="G232" s="1"/>
       <c r="H232" s="14"/>
       <c r="I232" s="14"/>
-      <c r="J232" s="1"/>
+      <c r="J232" s="14"/>
       <c r="K232" s="1"/>
-    </row>
-    <row r="233" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L232" s="1"/>
+    </row>
+    <row r="233" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -5795,10 +6106,11 @@
       <c r="G233" s="1"/>
       <c r="H233" s="14"/>
       <c r="I233" s="14"/>
-      <c r="J233" s="1"/>
+      <c r="J233" s="14"/>
       <c r="K233" s="1"/>
-    </row>
-    <row r="234" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L233" s="1"/>
+    </row>
+    <row r="234" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -5807,10 +6119,11 @@
       <c r="G234" s="1"/>
       <c r="H234" s="14"/>
       <c r="I234" s="14"/>
-      <c r="J234" s="1"/>
+      <c r="J234" s="14"/>
       <c r="K234" s="1"/>
-    </row>
-    <row r="235" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L234" s="1"/>
+    </row>
+    <row r="235" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -5819,10 +6132,11 @@
       <c r="G235" s="1"/>
       <c r="H235" s="14"/>
       <c r="I235" s="14"/>
-      <c r="J235" s="1"/>
+      <c r="J235" s="14"/>
       <c r="K235" s="1"/>
-    </row>
-    <row r="236" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L235" s="1"/>
+    </row>
+    <row r="236" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -5831,10 +6145,11 @@
       <c r="G236" s="1"/>
       <c r="H236" s="14"/>
       <c r="I236" s="14"/>
-      <c r="J236" s="1"/>
+      <c r="J236" s="14"/>
       <c r="K236" s="1"/>
-    </row>
-    <row r="237" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L236" s="1"/>
+    </row>
+    <row r="237" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -5843,10 +6158,11 @@
       <c r="G237" s="1"/>
       <c r="H237" s="14"/>
       <c r="I237" s="14"/>
-      <c r="J237" s="1"/>
+      <c r="J237" s="14"/>
       <c r="K237" s="1"/>
-    </row>
-    <row r="238" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L237" s="1"/>
+    </row>
+    <row r="238" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -5855,10 +6171,11 @@
       <c r="G238" s="1"/>
       <c r="H238" s="14"/>
       <c r="I238" s="14"/>
-      <c r="J238" s="1"/>
+      <c r="J238" s="14"/>
       <c r="K238" s="1"/>
-    </row>
-    <row r="239" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L238" s="1"/>
+    </row>
+    <row r="239" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -5867,10 +6184,11 @@
       <c r="G239" s="1"/>
       <c r="H239" s="14"/>
       <c r="I239" s="14"/>
-      <c r="J239" s="1"/>
+      <c r="J239" s="14"/>
       <c r="K239" s="1"/>
-    </row>
-    <row r="240" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L239" s="1"/>
+    </row>
+    <row r="240" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -5879,10 +6197,11 @@
       <c r="G240" s="1"/>
       <c r="H240" s="14"/>
       <c r="I240" s="14"/>
-      <c r="J240" s="1"/>
+      <c r="J240" s="14"/>
       <c r="K240" s="1"/>
-    </row>
-    <row r="241" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L240" s="1"/>
+    </row>
+    <row r="241" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -5891,10 +6210,11 @@
       <c r="G241" s="1"/>
       <c r="H241" s="14"/>
       <c r="I241" s="14"/>
-      <c r="J241" s="1"/>
+      <c r="J241" s="14"/>
       <c r="K241" s="1"/>
-    </row>
-    <row r="242" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L241" s="1"/>
+    </row>
+    <row r="242" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -5903,10 +6223,11 @@
       <c r="G242" s="1"/>
       <c r="H242" s="14"/>
       <c r="I242" s="14"/>
-      <c r="J242" s="1"/>
+      <c r="J242" s="14"/>
       <c r="K242" s="1"/>
-    </row>
-    <row r="243" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L242" s="1"/>
+    </row>
+    <row r="243" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -5915,23 +6236,50 @@
       <c r="G243" s="1"/>
       <c r="H243" s="14"/>
       <c r="I243" s="14"/>
-      <c r="J243" s="1"/>
+      <c r="J243" s="14"/>
       <c r="K243" s="1"/>
+      <c r="L243" s="1"/>
+    </row>
+    <row r="244" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="14"/>
+      <c r="I244" s="14"/>
+      <c r="J244" s="14"/>
+      <c r="K244" s="1"/>
+      <c r="L244" s="1"/>
+    </row>
+    <row r="245" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="14"/>
+      <c r="I245" s="14"/>
+      <c r="J245" s="14"/>
+      <c r="K245" s="1"/>
+      <c r="L245" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="B75:B84"/>
-    <mergeCell ref="B63:B74"/>
-    <mergeCell ref="B49:B62"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="B77:B86"/>
+    <mergeCell ref="B65:B76"/>
+    <mergeCell ref="B51:B64"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5943,7 +6291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E404E076-0B7B-40F9-97B7-E1391AA66157}">
   <dimension ref="B2:P33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
